--- a/data/trans_camb/iP13_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/iP13_R-Edad-trans_camb.xlsx
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,82</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>-1,14</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1,32</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>0,06</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>-0,09</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>0,05</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,81</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,88</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-0,26</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>2,02</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,85</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>-0,63</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,91</t>
+          <t>0,69</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 3,86</t>
+          <t>-3,5; 3,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 3,03</t>
+          <t>-4,32; 2,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 4,75</t>
+          <t>-2,62; 5,35</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 3,63</t>
+          <t>-3,47; 3,26</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 2,59</t>
+          <t>-3,21; 3,01</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 4,93</t>
+          <t>-3,46; 3,38</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 2,92</t>
+          <t>-2,72; 2,06</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 1,92</t>
+          <t>-2,8; 1,46</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 4,01</t>
+          <t>-1,74; 3,29</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>19,86%</t>
+          <t>-6,07%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,13%</t>
+          <t>-20,84%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>43,74%</t>
+          <t>24,25%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>20,97%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-6,3%</t>
+          <t>-2,1%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>48,13%</t>
+          <t>1,01%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>20,4%</t>
+          <t>-2,82%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-2,51%</t>
+          <t>-12,63%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>45,76%</t>
+          <t>13,74%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-41,24; 136,13</t>
+          <t>-50,05; 106,11</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-48,49; 106,71</t>
+          <t>-59,17; 61,67</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-22,71; 164,58</t>
+          <t>-39,02; 148,98</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-42,03; 127,43</t>
+          <t>-55,48; 113,38</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-58,0; 102,13</t>
+          <t>-52,31; 112,99</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-19,87; 178,79</t>
+          <t>-55,35; 127,16</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-24,79; 88,27</t>
+          <t>-43,49; 52,47</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-39,85; 57,24</t>
+          <t>-45,98; 38,64</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-4,82; 122,79</t>
+          <t>-29,31; 83,96</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,33</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,14</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,32</t>
+          <t>1,81</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>2,02</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-0,14</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,63</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,69</t>
+          <t>1,91</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 3,46</t>
+          <t>-1,97; 3,86</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 2,09</t>
+          <t>-2,57; 3,03</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 5,35</t>
+          <t>-1,16; 4,75</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 3,26</t>
+          <t>-2,34; 3,63</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 3,01</t>
+          <t>-3,02; 2,59</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 3,38</t>
+          <t>-0,99; 4,93</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 2,06</t>
+          <t>-1,24; 2,92</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 1,46</t>
+          <t>-2,06; 1,92</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 3,29</t>
+          <t>-0,19; 4,01</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-6,07%</t>
+          <t>19,86%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-20,84%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>24,25%</t>
+          <t>43,74%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1,37%</t>
+          <t>20,97%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-2,1%</t>
+          <t>-6,3%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>1,01%</t>
+          <t>48,13%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-2,82%</t>
+          <t>20,4%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-12,63%</t>
+          <t>-2,51%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>13,74%</t>
+          <t>45,76%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-50,05; 106,11</t>
+          <t>-41,24; 136,13</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-59,17; 61,67</t>
+          <t>-48,49; 106,71</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-39,02; 148,98</t>
+          <t>-22,71; 164,58</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-55,48; 113,38</t>
+          <t>-42,03; 127,43</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-52,31; 112,99</t>
+          <t>-58,0; 102,13</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-55,35; 127,16</t>
+          <t>-19,87; 178,79</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-43,49; 52,47</t>
+          <t>-24,79; 88,27</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-45,98; 38,64</t>
+          <t>-39,85; 57,24</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-29,31; 83,96</t>
+          <t>-4,82; 122,79</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/iP13_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/iP13_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,9</t>
+          <t>1,07</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,81</t>
+          <t>-3,08</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,13</t>
+          <t>-2,03</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,97</t>
+          <t>1,53</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,26</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,03</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,44</t>
+          <t>1,3</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,17</t>
+          <t>-1,35</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2,1</t>
+          <t>-0,96</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 6,61</t>
+          <t>-3,88; 6,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 2,42</t>
+          <t>-7,75; 1,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 6,74</t>
+          <t>-7,92; 3,6</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 5,51</t>
+          <t>-3,68; 6,87</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 7,26</t>
+          <t>-4,87; 5,42</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 7,17</t>
+          <t>-5,63; 6,56</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 5,17</t>
+          <t>-2,47; 4,73</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 3,65</t>
+          <t>-4,68; 2,01</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 6,01</t>
+          <t>-4,72; 3,58</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>51,51%</t>
+          <t>15,01%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-14,36%</t>
+          <t>-43,38%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>37,86%</t>
+          <t>-28,67%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>41,48%</t>
+          <t>21,99%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>68,63%</t>
+          <t>4,26%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>42,71%</t>
+          <t>1,91%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>47,0%</t>
+          <t>18,42%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>22,44%</t>
+          <t>-19,15%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>40,33%</t>
+          <t>-13,71%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-13,76; 164,99</t>
+          <t>-43,55; 147,78</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-55,16; 67,97</t>
+          <t>-78,5; 44,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-29,0; 164,2</t>
+          <t>-81,85; 96,14</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-22,03; 175,54</t>
+          <t>-40,28; 168,41</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-6,86; 240,24</t>
+          <t>-51,19; 132,94</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-30,61; 224,56</t>
+          <t>-62,68; 158,15</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 142,13</t>
+          <t>-26,76; 93,27</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-22,24; 91,38</t>
+          <t>-52,88; 43,97</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-13,04; 140,38</t>
+          <t>-56,96; 71,04</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,33</t>
+          <t>2,36</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,14</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,32</t>
+          <t>3,32</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>2,39</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>1,45</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-0,14</t>
+          <t>1,39</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,63</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,69</t>
+          <t>2,44</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 3,46</t>
+          <t>-0,78; 5,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 2,09</t>
+          <t>-3,08; 2,75</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 5,35</t>
+          <t>-0,36; 7,54</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 3,26</t>
+          <t>-2,44; 3,54</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 3,01</t>
+          <t>-0,64; 5,93</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 3,38</t>
+          <t>-1,88; 5,34</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 2,06</t>
+          <t>-0,66; 4,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 1,46</t>
+          <t>-1,17; 3,37</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 3,29</t>
+          <t>-0,13; 5,32</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-6,07%</t>
+          <t>50,75%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-20,84%</t>
+          <t>-4,91%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>24,25%</t>
+          <t>71,36%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,37%</t>
+          <t>6,16%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-2,1%</t>
+          <t>54,14%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,01%</t>
+          <t>32,84%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-2,82%</t>
+          <t>30,74%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-12,63%</t>
+          <t>21,18%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>13,74%</t>
+          <t>53,71%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-50,05; 106,11</t>
+          <t>-15,62; 172,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-59,17; 61,67</t>
+          <t>-50,78; 93,85</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-39,02; 148,98</t>
+          <t>-10,56; 218,21</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-55,48; 113,38</t>
+          <t>-44,81; 118,89</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-52,31; 112,99</t>
+          <t>-13,91; 175,64</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-55,35; 127,16</t>
+          <t>-39,45; 160,98</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-43,49; 52,47</t>
+          <t>-14,63; 107,77</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-45,98; 38,64</t>
+          <t>-20,72; 92,45</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-29,31; 83,96</t>
+          <t>-3,25; 144,38</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,42 +1064,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,82</t>
+          <t>-3,72</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>-1,36</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,81</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,26</t>
+          <t>1,07</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,02</t>
+          <t>2,91</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,85</t>
+          <t>-1,46</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>-0,24</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 3,86</t>
+          <t>-7,89; -0,1</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 3,03</t>
+          <t>-5,41; 3,24</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 4,75</t>
+          <t>-3,58; 5,94</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 3,63</t>
+          <t>-2,57; 4,56</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 2,59</t>
+          <t>-2,21; 4,46</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 4,93</t>
+          <t>-1,0; 6,54</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 2,92</t>
+          <t>-4,21; 1,05</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 1,92</t>
+          <t>-3,25; 2,4</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 4,01</t>
+          <t>-1,12; 5,14</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>19,86%</t>
+          <t>-57,25%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1,13%</t>
+          <t>-20,89%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>43,74%</t>
+          <t>15,04%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>20,97%</t>
+          <t>33,9%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-6,3%</t>
+          <t>36,52%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>48,13%</t>
+          <t>99,48%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>20,4%</t>
+          <t>-30,34%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-2,51%</t>
+          <t>-4,92%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>45,76%</t>
+          <t>39,74%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-41,24; 136,13</t>
+          <t>-86,16; 12,11</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-48,49; 106,71</t>
+          <t>-63,51; 91,12</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-22,71; 164,58</t>
+          <t>-40,09; 151,32</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-42,03; 127,43</t>
+          <t>-60,62; 371,88</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-58,0; 102,13</t>
+          <t>-54,72; 398,92</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-19,87; 178,79</t>
+          <t>-36,32; 619,51</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-24,79; 88,27</t>
+          <t>-66,46; 30,52</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-39,85; 57,24</t>
+          <t>-49,24; 81,61</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-4,82; 122,79</t>
+          <t>-19,57; 147,78</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,14</t>
+          <t>3,03</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,58</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,49</t>
+          <t>2,02</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,97</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,8</t>
+          <t>-0,93</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,34</t>
+          <t>1,29</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,06</t>
+          <t>2,08</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1,42</t>
+          <t>1,66</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 3,11</t>
+          <t>-0,15; 6,72</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 1,18</t>
+          <t>-2,36; 4,05</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 3,67</t>
+          <t>-0,91; 4,96</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 3,02</t>
+          <t>-2,61; 4,84</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 2,54</t>
+          <t>-4,3; 2,39</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 3,37</t>
+          <t>-2,23; 4,49</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 2,42</t>
+          <t>-0,34; 4,59</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 1,43</t>
+          <t>-2,24; 2,27</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 2,87</t>
+          <t>-0,5; 3,91</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>22,88%</t>
+          <t>95,78%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-11,68%</t>
+          <t>23,33%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>29,73%</t>
+          <t>64,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>21,79%</t>
+          <t>25,81%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>17,84%</t>
+          <t>-22,34%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>30,03%</t>
+          <t>30,96%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>22,36%</t>
+          <t>56,91%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>1,83%</t>
+          <t>-2,22%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>30,03%</t>
+          <t>45,61%</t>
         </is>
       </c>
     </row>
@@ -1439,58 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-11,32; 73,41</t>
+          <t>-13,5; 308,08</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-38,8; 30,54</t>
+          <t>-58,49; 218,12</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-5,23; 87,96</t>
+          <t>-25,08; 269,38</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-17,93; 85,0</t>
+          <t>-45,95; 190,64</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-18,98; 69,03</t>
+          <t>-75,17; 105,54</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-11,08; 93,22</t>
+          <t>-39,33; 175,87</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 57,89</t>
+          <t>-11,1; 169,24</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-21,97; 34,04</t>
+          <t>-50,1; 86,21</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 69,81</t>
+          <t>-13,18; 153,72</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>1,14</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-0,58</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>1,49</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>0,97</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0,8</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>1,34</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>1,06</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0,09</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>1,42</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-1,02; 3,1</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-2,3; 1,43</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-0,47; 3,71</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-0,95; 2,94</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-0,81; 2,61</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-0,64; 3,58</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-0,26; 2,55</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-1,34; 1,37</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0,02; 2,94</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>22,88%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-11,68%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>29,73%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>21,79%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>17,84%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>30,03%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>22,36%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>1,83%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>30,03%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-16,86; 75,69</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-40,15; 33,61</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-9,0; 91,84</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-18,42; 82,29</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-15,39; 70,97</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-12,52; 101,38</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-5,18; 60,98</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-24,72; 32,82</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>1,54; 71,86</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/iP13_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/iP13_R-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 6,7</t>
+          <t>-3,95; 6,45</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,75; 1,7</t>
+          <t>-7,56; 1,97</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,92; 3,6</t>
+          <t>-7,34; 4,53</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 6,87</t>
+          <t>-3,45; 7,55</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 5,42</t>
+          <t>-5,18; 6,01</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,63; 6,56</t>
+          <t>-5,5; 7,97</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 4,73</t>
+          <t>-2,57; 5,41</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-4,68; 2,01</t>
+          <t>-5,05; 2,34</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 3,58</t>
+          <t>-4,67; 3,83</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-43,55; 147,78</t>
+          <t>-42,01; 148,37</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-78,5; 44,34</t>
+          <t>-79,98; 54,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-81,85; 96,14</t>
+          <t>-78,83; 118,31</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-40,28; 168,41</t>
+          <t>-38,98; 220,21</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-51,19; 132,94</t>
+          <t>-52,45; 149,86</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-62,68; 158,15</t>
+          <t>-60,31; 204,78</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-26,76; 93,27</t>
+          <t>-28,5; 110,72</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-52,88; 43,97</t>
+          <t>-54,03; 50,91</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-56,96; 71,04</t>
+          <t>-57,49; 71,28</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 5,91</t>
+          <t>-1,02; 5,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 2,75</t>
+          <t>-3,21; 2,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 7,54</t>
+          <t>-0,2; 7,28</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 3,54</t>
+          <t>-2,75; 3,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 5,93</t>
+          <t>-0,85; 5,63</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 5,34</t>
+          <t>-1,9; 5,07</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 4,0</t>
+          <t>-0,91; 3,84</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 3,37</t>
+          <t>-1,38; 3,18</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 5,32</t>
+          <t>0,02; 5,01</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-15,62; 172,1</t>
+          <t>-16,82; 167,49</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-50,78; 93,85</t>
+          <t>-54,24; 76,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-10,56; 218,21</t>
+          <t>-5,57; 213,47</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-44,81; 118,89</t>
+          <t>-48,44; 115,58</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-13,91; 175,64</t>
+          <t>-15,78; 179,39</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-39,45; 160,98</t>
+          <t>-36,98; 158,04</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-14,63; 107,77</t>
+          <t>-16,88; 107,96</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-20,72; 92,45</t>
+          <t>-26,1; 85,56</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 144,38</t>
+          <t>-1,43; 142,88</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,89; -0,1</t>
+          <t>-7,93; 0,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,41; 3,24</t>
+          <t>-5,6; 2,82</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 5,94</t>
+          <t>-4,03; 5,62</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 4,56</t>
+          <t>-2,58; 4,25</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 4,46</t>
+          <t>-2,54; 4,32</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 6,54</t>
+          <t>-1,26; 6,67</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 1,05</t>
+          <t>-4,37; 1,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 2,4</t>
+          <t>-3,04; 2,51</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 5,14</t>
+          <t>-1,22; 4,92</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-86,16; 12,11</t>
+          <t>-85,17; 11,79</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-63,51; 91,12</t>
+          <t>-66,76; 65,21</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-40,09; 151,32</t>
+          <t>-47,68; 137,13</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-60,62; 371,88</t>
+          <t>-59,52; 335,71</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-54,72; 398,92</t>
+          <t>-59,56; 352,77</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-36,32; 619,51</t>
+          <t>-33,31; 535,58</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-66,46; 30,52</t>
+          <t>-66,4; 35,38</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-49,24; 81,61</t>
+          <t>-46,53; 78,76</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-19,57; 147,78</t>
+          <t>-21,32; 145,37</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 6,72</t>
+          <t>-0,26; 6,88</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 4,05</t>
+          <t>-2,31; 4,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 4,96</t>
+          <t>-0,83; 5,03</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 4,84</t>
+          <t>-2,5; 4,9</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,3; 2,39</t>
+          <t>-3,85; 2,03</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 4,49</t>
+          <t>-2,02; 4,94</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 4,59</t>
+          <t>-0,41; 4,76</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 2,27</t>
+          <t>-2,0; 2,54</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 3,91</t>
+          <t>-0,69; 4,06</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-13,5; 308,08</t>
+          <t>-14,9; 327,3</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-58,49; 218,12</t>
+          <t>-59,99; 245,35</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-25,08; 269,38</t>
+          <t>-22,23; 289,64</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-45,95; 190,64</t>
+          <t>-45,62; 198,36</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-75,17; 105,54</t>
+          <t>-70,24; 95,48</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-39,33; 175,87</t>
+          <t>-36,91; 188,13</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-11,1; 169,24</t>
+          <t>-11,7; 178,75</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-50,1; 86,21</t>
+          <t>-46,39; 106,88</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-13,18; 153,72</t>
+          <t>-15,55; 170,99</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 3,1</t>
+          <t>-0,87; 3,06</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 1,43</t>
+          <t>-2,45; 1,1</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 3,71</t>
+          <t>-0,66; 3,52</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 2,94</t>
+          <t>-0,79; 2,96</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 2,61</t>
+          <t>-0,99; 2,76</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 3,58</t>
+          <t>-0,68; 3,41</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 2,55</t>
+          <t>-0,3; 2,36</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 1,37</t>
+          <t>-1,09; 1,36</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0,02; 2,94</t>
+          <t>0,05; 2,82</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-16,86; 75,69</t>
+          <t>-15,51; 76,68</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-40,15; 33,61</t>
+          <t>-40,44; 27,34</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-9,0; 91,84</t>
+          <t>-12,31; 86,46</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-18,42; 82,29</t>
+          <t>-15,44; 80,85</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-15,39; 70,97</t>
+          <t>-18,85; 79,84</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-12,52; 101,38</t>
+          <t>-14,15; 87,11</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-5,18; 60,98</t>
+          <t>-4,6; 59,44</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-24,72; 32,82</t>
+          <t>-20,54; 33,94</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>1,54; 71,86</t>
+          <t>0,85; 69,06</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/iP13_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/iP13_R-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -632,32 +632,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>1,53</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0,3</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>-0,07</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>1,07</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>-3,08</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-2,03</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>1,53</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,3</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>-1,8</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 6,45</t>
+          <t>-3,63; 6,95</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,56; 1,97</t>
+          <t>-5,01; 5,82</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,34; 4,53</t>
+          <t>-5,65; 6,52</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 7,55</t>
+          <t>-4,31; 5,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,18; 6,01</t>
+          <t>-7,53; 1,19</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,5; 7,97</t>
+          <t>-7,25; 4,22</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 5,41</t>
+          <t>-2,68; 5,06</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-5,05; 2,34</t>
+          <t>-4,93; 2,13</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 3,83</t>
+          <t>-5,21; 3,73</t>
         </is>
       </c>
     </row>
@@ -738,32 +738,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>21,99%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>4,26%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>-0,96%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>15,01%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>-43,38%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-28,67%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>21,99%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>4,26%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1,91%</t>
+          <t>-25,33%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-13,71%</t>
+          <t>-13,69%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-42,01; 148,37</t>
+          <t>-38,32; 164,68</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-79,98; 54,04</t>
+          <t>-50,3; 138,67</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-78,83; 118,31</t>
+          <t>-64,65; 147,07</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-38,98; 220,21</t>
+          <t>-46,62; 135,48</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-52,45; 149,86</t>
+          <t>-81,08; 32,69</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-60,31; 204,78</t>
+          <t>-78,05; 121,49</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-28,5; 110,72</t>
+          <t>-29,42; 101,41</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-54,03; 50,91</t>
+          <t>-53,74; 41,42</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-57,49; 71,28</t>
+          <t>-59,61; 71,34</t>
         </is>
       </c>
     </row>
@@ -848,32 +848,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>0,27</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>2,39</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1,28</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>2,36</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>-0,23</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>3,32</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,27</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>2,39</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,45</t>
+          <t>3,3</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,44</t>
+          <t>2,37</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 5,51</t>
+          <t>-2,35; 3,86</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 2,48</t>
+          <t>-0,85; 5,68</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 7,28</t>
+          <t>-2,0; 5,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 3,62</t>
+          <t>-1,19; 5,74</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 5,63</t>
+          <t>-2,94; 2,53</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 5,07</t>
+          <t>-0,1; 7,44</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 3,84</t>
+          <t>-0,84; 3,59</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 3,18</t>
+          <t>-1,26; 3,09</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,02; 5,01</t>
+          <t>-0,01; 5,35</t>
         </is>
       </c>
     </row>
@@ -954,32 +954,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>6,16%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>54,14%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>29,04%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>50,75%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>-4,91%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>71,36%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>6,16%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>54,14%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>32,84%</t>
+          <t>70,93%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>53,71%</t>
+          <t>52,17%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-16,82; 167,49</t>
+          <t>-43,98; 140,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-54,24; 76,6</t>
+          <t>-16,82; 177,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,57; 213,47</t>
+          <t>-38,17; 172,31</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-48,44; 115,58</t>
+          <t>-23,3; 180,55</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-15,78; 179,39</t>
+          <t>-52,54; 82,49</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-36,98; 158,04</t>
+          <t>-4,09; 223,6</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-16,88; 107,96</t>
+          <t>-17,1; 101,96</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-26,1; 85,56</t>
+          <t>-22,11; 88,75</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 142,88</t>
+          <t>-0,76; 145,52</t>
         </is>
       </c>
     </row>
@@ -1064,32 +1064,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>0,99</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1,07</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>3,17</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>-3,72</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>-1,36</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,98</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,99</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>1,07</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,91</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>1,91</t>
+          <t>2,0</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,93; 0,11</t>
+          <t>-2,78; 4,41</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,6; 2,82</t>
+          <t>-3,03; 4,17</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,03; 5,62</t>
+          <t>-0,67; 7,28</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 4,25</t>
+          <t>-8,14; 0,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 4,32</t>
+          <t>-5,8; 2,72</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 6,67</t>
+          <t>-3,65; 5,55</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 1,0</t>
+          <t>-4,13; 1,28</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 2,51</t>
+          <t>-3,06; 2,69</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 4,92</t>
+          <t>-1,09; 5,32</t>
         </is>
       </c>
     </row>
@@ -1170,32 +1170,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>33,9%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>36,52%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>108,03%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>-57,25%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>-20,89%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>15,04%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>33,9%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>36,52%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>99,48%</t>
+          <t>13,68%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>39,74%</t>
+          <t>41,63%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-85,17; 11,79</t>
+          <t>-58,4; 377,62</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-66,76; 65,21</t>
+          <t>-57,04; 344,73</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-47,68; 137,13</t>
+          <t>-27,76; 490,58</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-59,52; 335,71</t>
+          <t>-87,77; 12,19</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-59,56; 352,77</t>
+          <t>-64,76; 71,66</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-33,31; 535,58</t>
+          <t>-43,11; 142,97</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-66,4; 35,38</t>
+          <t>-64,74; 44,39</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-46,53; 78,76</t>
+          <t>-46,1; 81,44</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-21,32; 145,37</t>
+          <t>-22,41; 164,92</t>
         </is>
       </c>
     </row>
@@ -1280,32 +1280,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>1,08</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>-0,93</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0,86</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>3,03</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>0,74</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>2,02</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>1,08</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>-0,93</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,29</t>
+          <t>1,75</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1,66</t>
+          <t>1,32</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 6,88</t>
+          <t>-2,64; 4,58</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 4,0</t>
+          <t>-4,05; 2,31</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 5,03</t>
+          <t>-2,5; 4,35</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 4,9</t>
+          <t>-0,09; 7,07</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 2,03</t>
+          <t>-2,37; 3,97</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 4,94</t>
+          <t>-1,43; 4,78</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 4,76</t>
+          <t>-0,49; 4,73</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 2,54</t>
+          <t>-2,28; 2,23</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 4,06</t>
+          <t>-1,02; 3,49</t>
         </is>
       </c>
     </row>
@@ -1386,32 +1386,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>25,81%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>-22,34%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>20,55%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>95,78%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="G18" s="2" t="inlineStr">
         <is>
           <t>23,33%</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>64,0%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>25,81%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>-22,34%</t>
-        </is>
-      </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>30,96%</t>
+          <t>55,38%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>45,61%</t>
+          <t>36,05%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-14,9; 327,3</t>
+          <t>-49,09; 168,3</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-59,99; 245,35</t>
+          <t>-72,42; 98,07</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-22,23; 289,64</t>
+          <t>-44,02; 171,38</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-45,62; 198,36</t>
+          <t>-9,41; 384,02</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-70,24; 95,48</t>
+          <t>-55,9; 236,26</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-36,91; 188,13</t>
+          <t>-32,76; 295,84</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-11,7; 178,75</t>
+          <t>-9,8; 179,1</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-46,39; 106,88</t>
+          <t>-51,21; 90,71</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-15,55; 170,99</t>
+          <t>-20,8; 136,05</t>
         </is>
       </c>
     </row>
@@ -1496,32 +1496,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>0,97</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0,8</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>1,16</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
           <t>1,14</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="G20" s="2" t="inlineStr">
         <is>
           <t>-0,58</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>1,49</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>0,97</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>0,8</t>
-        </is>
-      </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>1,34</t>
+          <t>1,36</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>1,42</t>
+          <t>1,28</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 3,06</t>
+          <t>-0,95; 3,02</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 1,1</t>
+          <t>-1,0; 2,54</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 3,52</t>
+          <t>-0,85; 3,18</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 2,96</t>
+          <t>-0,66; 3,11</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 2,76</t>
+          <t>-2,34; 1,18</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 3,41</t>
+          <t>-0,48; 3,55</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 2,36</t>
+          <t>-0,28; 2,42</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 1,36</t>
+          <t>-1,15; 1,43</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0,05; 2,82</t>
+          <t>-0,15; 2,68</t>
         </is>
       </c>
     </row>
@@ -1602,32 +1602,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>21,79%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>17,84%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>26,01%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
           <t>22,88%</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
+      <c r="G22" s="2" t="inlineStr">
         <is>
           <t>-11,68%</t>
         </is>
       </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>29,73%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>21,79%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>17,84%</t>
-        </is>
-      </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>30,03%</t>
+          <t>27,22%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>30,03%</t>
+          <t>26,96%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-15,51; 76,68</t>
+          <t>-17,93; 85,0</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-40,44; 27,34</t>
+          <t>-18,98; 69,03</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-12,31; 86,46</t>
+          <t>-16,08; 87,58</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-15,44; 80,85</t>
+          <t>-11,32; 73,41</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-18,85; 79,84</t>
+          <t>-38,8; 30,54</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-14,15; 87,11</t>
+          <t>-8,47; 84,12</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-4,6; 59,44</t>
+          <t>-5,8; 57,89</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-20,54; 33,94</t>
+          <t>-21,97; 34,04</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>0,85; 69,06</t>
+          <t>-3,0; 65,67</t>
         </is>
       </c>
     </row>
